--- a/data/santrumpos.xlsx
+++ b/data/santrumpos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20241013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F7F8C0-1291-034D-B014-A3EA33E0D3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7ACDB-E783-AC44-8D4D-562CA3940C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="-17860" windowWidth="23360" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="4880" windowWidth="23360" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>saraso_numeris</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>#FFFF33</t>
+  </si>
+  <si>
+    <t>#80cdc1</t>
+  </si>
+  <si>
+    <t>#8c510a</t>
+  </si>
+  <si>
+    <t>#bf812d</t>
+  </si>
+  <si>
+    <t>#543005</t>
+  </si>
+  <si>
+    <t>#d6604d</t>
+  </si>
+  <si>
+    <t>#1a1a1a</t>
+  </si>
+  <si>
+    <t>#006837</t>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -530,6 +551,9 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -541,6 +565,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -566,6 +593,9 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -577,6 +607,9 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -588,6 +621,9 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -613,6 +649,9 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -624,6 +663,9 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -704,6 +746,9 @@
       </c>
       <c r="C16" t="s">
         <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/santrumpos.xlsx
+++ b/data/santrumpos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20241013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA7ACDB-E783-AC44-8D4D-562CA3940C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893724A-6A85-414E-B46F-122CDC00BAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="4880" windowWidth="23360" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>saraso_numeris</t>
   </si>
@@ -79,9 +79,6 @@
     <t>NS-2</t>
   </si>
   <si>
-    <t>LSP-3</t>
-  </si>
-  <si>
     <t>LŽP-4</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>LRP-6</t>
   </si>
   <si>
-    <t>LŽVS-8</t>
-  </si>
-  <si>
     <t>TK-9</t>
   </si>
   <si>
@@ -103,12 +97,6 @@
     <t>DSVL-11</t>
   </si>
   <si>
-    <t>NA-12</t>
-  </si>
-  <si>
-    <t>TSLKD-13</t>
-  </si>
-  <si>
     <t>LS-14</t>
   </si>
   <si>
@@ -164,6 +152,21 @@
   </si>
   <si>
     <t>#006837</t>
+  </si>
+  <si>
+    <t>LSDP-3</t>
+  </si>
+  <si>
+    <t>LVŽS-8</t>
+  </si>
+  <si>
+    <t>PPNA-12</t>
+  </si>
+  <si>
+    <t>TS-LKD-13</t>
+  </si>
+  <si>
+    <t>kaimynai</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -527,7 +530,7 @@
     <col min="2" max="2" width="73.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,13 +538,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,10 +558,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -566,10 +575,13 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -577,13 +589,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -591,13 +606,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,13 +623,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -619,13 +640,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -633,13 +657,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -647,13 +674,16 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -661,13 +691,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -675,13 +708,16 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -689,13 +725,16 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -703,13 +742,16 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -717,13 +759,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16</v>
       </c>
@@ -731,13 +776,16 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17</v>
       </c>
@@ -745,10 +793,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/santrumpos.xlsx
+++ b/data/santrumpos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20241013/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893724A-6A85-414E-B46F-122CDC00BAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA153F7-B907-C443-ABF4-136C5BDA8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,6 +806,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>